--- a/DateBase/orders/Nha Thu_2026-1-7.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-7.xlsx
@@ -616,6 +616,9 @@
       <c r="C21" t="str">
         <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -677,7 +680,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03010321511145681510555555300</v>
+        <v>03010321511145681510555555301</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-1-7.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-7.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -617,12 +617,351 @@
         <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>324_小手球_Spiraea flower double petals_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">829_白玉兰_magnolia flower
+white/purple_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>830_粉玉兰_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
         <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F29" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2</v>
+      </c>
+      <c r="C30" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F34" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>3</v>
+      </c>
+      <c r="C35" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>173_朱丽叶_Juliet_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F39" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>4</v>
+      </c>
+      <c r="C40" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>621_康乃馨桃红_undefined_undefined_20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>601_康乃馨大红_red_undefined_20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>5</v>
+      </c>
+      <c r="C46" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F47" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F48" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F49" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>6</v>
+      </c>
+      <c r="C50" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>324_小手球_Spiraea flower double petals_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
+      <c r="C52" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="C53" t="str" xml:space="preserve">
+        <v xml:space="preserve">350_千层金红_Melaleuca bracteata
+（dyed red）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="C56" t="str" xml:space="preserve">
+        <v xml:space="preserve">497_小飞燕粉色_delphinium ballkleid
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>579_腊梅红_wax red_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -680,7 +1019,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03010321511145681510555555301</v>
+        <v>03010321511145681510555555301515101062252163655165236463262555192531552555355355550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-1-7.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-7.xlsx
@@ -958,6 +958,9 @@
       <c r="C61" t="str">
         <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
       </c>
+      <c r="F61" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1019,7 +1022,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03010321511145681510555555301515101062252163655165236463262555192531552555355355550</v>
+        <v>03010321511145681510555555301515101062252163655165236463262555192531552555355355553</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-1-7.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-7.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -959,12 +959,91 @@
         <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
       </c>
       <c r="F61" t="str">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>301_彩星 红_Tinted Gypso Red_ gypsophila_0.5kg</v>
+      </c>
+      <c r="F62" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>7</v>
+      </c>
+      <c r="C63" t="str">
+        <v>855_海芋粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>8</v>
+      </c>
+      <c r="C64" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>432_小刺秦/情人果_small Eryngium_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
         <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>9</v>
+      </c>
+      <c r="C67" t="str">
+        <v>636_干花大叶白_undefined_undefined_1stem</v>
+      </c>
+      <c r="F67" t="str">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v/>
+      </c>
+      <c r="C68" t="str">
+        <v>636_干花大叶白_undefined_undefined_1stem</v>
+      </c>
+      <c r="F68" t="str">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>10</v>
+      </c>
+      <c r="C69" t="str">
+        <v>636_干花大叶白_undefined_undefined_1stem</v>
+      </c>
+      <c r="F69" t="str">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L69"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1022,7 +1101,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03010321511145681510555555301515101062252163655165236463262555192531552555355355553</v>
+        <v>03010321511145681510555555301515101062252163655165236463262555192531552555355355553345553588657</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-1-7.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-7.xlsx
@@ -1103,6 +1103,9 @@
       <c r="G2" t="str">
         <v>03010321511145681510555555301515101062252163655165236463262555192531552555355355553345553588657</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
